--- a/biology/Botanique/Coccinia/Coccinia.xlsx
+++ b/biology/Botanique/Coccinia/Coccinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccinia est un genre de plantes à fleurs de la famille des Cucurbitaceae.
-Ce genre comprend 25 espèces de plantes herbacées originaires de l'Afrique subsaharienne avec une espèce aussi distribuée à l'Asie du Sud et du Sud-est, qui est aussi envahissante aux îles de l'océan pacifique et l'Amérique tropicale[1].
+Ce genre comprend 25 espèces de plantes herbacées originaires de l'Afrique subsaharienne avec une espèce aussi distribuée à l'Asie du Sud et du Sud-est, qui est aussi envahissante aux îles de l'océan pacifique et l'Amérique tropicale.
 L'espèce plus connue est Coccinia grandis, la courge écarlate, qui est cultivée pour ses feuilles jeunes et fruits comestibles.
 Le nom générique Coccinia dérive du latin coccineus, écarlate, en référence à la couleur rouge brillant du fruit mûr.
 </t>
@@ -514,13 +526,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 août 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 août 2013) :
 Coccinia grandis
-Selon ITIS      (29 août 2013)[3] :
+Selon ITIS      (29 août 2013) :
 Coccinia grandis (L.) Voigt
-Selon NCBI  (29 août 2013)[4] :
+Selon NCBI  (29 août 2013) :
 Coccinia abyssinica
 Coccinia adoensis
 Coccinia aurantiaca
@@ -548,7 +562,7 @@
 Coccinia sessilifolia
 Coccinia subsessiliflora
 Coccinia trilobata
-Selon Tropicos                                           (29 août 2013)[5] :
+Selon Tropicos                                           (29 août 2013) :
 Coccinia abyssinica (Lam.) Cogn.
 Coccinia adoensis (Hochst. ex A. Rich.) Cogn.
 Coccinia aostae Buscal. &amp; Muschl.
